--- a/static/output/Excel/LRcountsxl1-sol2.xlsx
+++ b/static/output/Excel/LRcountsxl1-sol2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507AC28-B044-44ED-A081-8B3498ECD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE3560-DFE4-944E-9B50-7BA6FBA46059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Exposure" sheetId="3" r:id="rId2"/>
     <sheet name="IBNR" sheetId="4" r:id="rId3"/>
-    <sheet name="comparison" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>sum from 12</t>
   </si>
@@ -171,15 +170,6 @@
     <t>Period of</t>
   </si>
   <si>
-    <t>True rectangle:</t>
-  </si>
-  <si>
-    <t>A/E</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
     <t>One could guess the slowing from this graph. The question is whether the trend</t>
   </si>
   <si>
@@ -187,15 +177,6 @@
   </si>
   <si>
     <t>tab suggests the latter.</t>
-  </si>
-  <si>
-    <t>The slowing of notifications has been somewhat taken into account, but not enough.</t>
-  </si>
-  <si>
-    <t>Heatmap of A/E:</t>
-  </si>
-  <si>
-    <t>(average)</t>
   </si>
 </sst>
 </file>
@@ -379,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -418,15 +399,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +422,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1168,7 +1146,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3248,9 +3226,9 @@
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>9559</v>
       </c>
@@ -3303,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10713</v>
       </c>
@@ -3356,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11584</v>
       </c>
@@ -3409,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11264</v>
       </c>
@@ -3462,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11944</v>
       </c>
@@ -3515,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12930</v>
       </c>
@@ -3568,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13786</v>
       </c>
@@ -3621,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14626</v>
       </c>
@@ -3674,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13716</v>
       </c>
@@ -3727,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15626</v>
       </c>
@@ -3780,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14623</v>
       </c>
@@ -3833,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16471</v>
       </c>
@@ -3886,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15906</v>
       </c>
@@ -3939,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17055</v>
       </c>
@@ -3992,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16893</v>
       </c>
@@ -4045,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17743</v>
       </c>
@@ -4111,12 +4089,12 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="18" width="6.7109375" customWidth="1"/>
+    <col min="3" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
@@ -4138,7 +4116,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
@@ -4197,7 +4175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -4213,7 +4191,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -4286,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -4356,7 +4334,7 @@
       </c>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -4423,7 +4401,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -4487,7 +4465,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -4548,7 +4526,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -4606,7 +4584,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -4661,7 +4639,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -4713,7 +4691,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -4762,7 +4740,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -4808,7 +4786,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -4851,7 +4829,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -4891,7 +4869,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -4928,7 +4906,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -4962,7 +4940,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -4993,7 +4971,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -5021,7 +4999,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5036,7 +5014,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5056,7 +5034,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -5073,7 +5051,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5088,7 +5066,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -5158,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5173,7 +5151,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -5228,7 +5206,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5243,7 +5221,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -5305,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5321,7 +5299,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -5337,7 +5315,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -5407,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -5425,7 +5403,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5441,7 +5419,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -5502,7 +5480,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -5520,7 +5498,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5536,7 +5514,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5552,7 +5530,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -5570,7 +5548,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5594,7 +5572,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +5602,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5642,7 +5620,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -5680,7 +5658,7 @@
         <v>-3.1262673667024456</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5718,7 +5696,7 @@
         <v>4.3881284687978139E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5734,7 +5712,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -5752,7 +5730,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +5751,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -5794,7 +5772,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -5815,7 +5793,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5841,16 +5819,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0658A7FE-A7BD-42D9-8578-AE83D6467FB8}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -5877,7 +5855,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -5939,7 +5917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="1"/>
@@ -5960,7 +5938,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -6042,7 +6020,7 @@
         <v>9.6176164030018718E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -6124,7 +6102,7 @@
         <v>0.10439559022586216</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -6206,7 +6184,7 @@
         <v>9.611720156139554E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -6288,7 +6266,7 @@
         <v>0.10044478113824135</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -6370,7 +6348,7 @@
         <v>9.9416842519383652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -6452,7 +6430,7 @@
         <v>9.8920188933686551E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -6534,7 +6512,7 @@
         <v>0.10056876428519083</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -6616,7 +6594,7 @@
         <v>9.6930921566761058E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -6698,7 +6676,7 @@
         <v>0.10533780829036835</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -6780,7 +6758,7 @@
         <v>9.5541034361471086E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -6862,7 +6840,7 @@
         <v>9.8272857371702924E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -6944,7 +6922,7 @@
         <v>9.8038966809353992E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -7026,7 +7004,7 @@
         <v>9.3906771208181555E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -7108,7 +7086,7 @@
         <v>9.3292471293941748E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -7190,7 +7168,7 @@
         <v>8.7440062999832882E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -7272,7 +7250,7 @@
         <v>9.007745094905252E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7293,7 +7271,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7317,37 +7295,37 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="U23" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U23" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+    </row>
+    <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+    </row>
+    <row r="25" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -7366,18 +7344,18 @@
       <c r="R25" s="20"/>
       <c r="S25" s="21"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+    </row>
+    <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -7396,16 +7374,16 @@
       <c r="R26" s="20"/>
       <c r="S26" s="21"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+    </row>
+    <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -7425,7 +7403,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="23"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -7445,7 +7423,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="23"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -7465,7 +7443,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="23"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -7485,7 +7463,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="23"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -7505,7 +7483,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="23"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -7525,7 +7503,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="23"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -7545,7 +7523,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="23"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -7565,7 +7543,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="23"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -7585,7 +7563,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="23"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7605,7 +7583,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="23"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7625,7 +7603,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="23"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -7645,7 +7623,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="23"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -7665,7 +7643,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="23"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -7685,13 +7663,13 @@
       <c r="S40" s="21"/>
       <c r="T40" s="23"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="20"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="21"/>
@@ -7716,1520 +7694,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99BCE70-44EF-43E8-BB68-6647D6498D54}">
-  <dimension ref="A1:AB36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y27" sqref="Y27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="24">
-        <v>156</v>
-      </c>
-      <c r="D2" s="24">
-        <v>383</v>
-      </c>
-      <c r="E2" s="24">
-        <v>220</v>
-      </c>
-      <c r="F2" s="24">
-        <v>86</v>
-      </c>
-      <c r="G2" s="24">
-        <v>35</v>
-      </c>
-      <c r="H2" s="24">
-        <v>25</v>
-      </c>
-      <c r="I2" s="24">
-        <v>8</v>
-      </c>
-      <c r="J2" s="24">
-        <v>4</v>
-      </c>
-      <c r="K2" s="24">
-        <v>2</v>
-      </c>
-      <c r="L2" s="24">
-        <v>0</v>
-      </c>
-      <c r="M2" s="24">
-        <v>0</v>
-      </c>
-      <c r="N2" s="24">
-        <v>0</v>
-      </c>
-      <c r="O2" s="24">
-        <v>0</v>
-      </c>
-      <c r="P2" s="27">
-        <f>SUM(C2:N2)</f>
-        <v>919</v>
-      </c>
-      <c r="Q2" s="21">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="20">
-        <f>Q2/IBNR!R4</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="32">
-        <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
-        <v>919</v>
-      </c>
-      <c r="T2" s="20">
-        <f>S2/IBNR!S4</f>
-        <v>0.99962152309992525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="24">
-        <v>158</v>
-      </c>
-      <c r="D3" s="24">
-        <v>445</v>
-      </c>
-      <c r="E3" s="24">
-        <v>262</v>
-      </c>
-      <c r="F3" s="24">
-        <v>132</v>
-      </c>
-      <c r="G3" s="24">
-        <v>83</v>
-      </c>
-      <c r="H3" s="24">
-        <v>24</v>
-      </c>
-      <c r="I3" s="24">
-        <v>9</v>
-      </c>
-      <c r="J3" s="24">
-        <v>4</v>
-      </c>
-      <c r="K3" s="24">
-        <v>1</v>
-      </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="24">
-        <v>0</v>
-      </c>
-      <c r="N3" s="24">
-        <v>0</v>
-      </c>
-      <c r="O3" s="24">
-        <v>0</v>
-      </c>
-      <c r="P3" s="27">
-        <f>SUM(C3:N3)</f>
-        <v>1118</v>
-      </c>
-      <c r="Q3" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R3" s="20">
-        <f>Q3/IBNR!R5</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <f t="shared" si="1"/>
-        <v>1118</v>
-      </c>
-      <c r="T3" s="20">
-        <f>S3/IBNR!S5</f>
-        <v>0.99965132189640948</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="24">
-        <v>137</v>
-      </c>
-      <c r="D4" s="24">
-        <v>417</v>
-      </c>
-      <c r="E4" s="24">
-        <v>257</v>
-      </c>
-      <c r="F4" s="24">
-        <v>167</v>
-      </c>
-      <c r="G4" s="24">
-        <v>70</v>
-      </c>
-      <c r="H4" s="24">
-        <v>33</v>
-      </c>
-      <c r="I4" s="24">
-        <v>19</v>
-      </c>
-      <c r="J4" s="24">
-        <v>6</v>
-      </c>
-      <c r="K4" s="24">
-        <v>5</v>
-      </c>
-      <c r="L4" s="24">
-        <v>1</v>
-      </c>
-      <c r="M4" s="24">
-        <v>1</v>
-      </c>
-      <c r="N4" s="24">
-        <v>0</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27">
-        <f>SUM(C4:N4)</f>
-        <v>1113</v>
-      </c>
-      <c r="Q4" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="20">
-        <f>Q4/IBNR!R6</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="32">
-        <f t="shared" si="1"/>
-        <v>1113</v>
-      </c>
-      <c r="T4" s="20">
-        <f>S4/IBNR!S6</f>
-        <v>0.99962129092574636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="24">
-        <v>123</v>
-      </c>
-      <c r="D5" s="24">
-        <v>415</v>
-      </c>
-      <c r="E5" s="24">
-        <v>305</v>
-      </c>
-      <c r="F5" s="24">
-        <v>145</v>
-      </c>
-      <c r="G5" s="24">
-        <v>77</v>
-      </c>
-      <c r="H5" s="24">
-        <v>33</v>
-      </c>
-      <c r="I5" s="24">
-        <v>17</v>
-      </c>
-      <c r="J5" s="24">
-        <v>8</v>
-      </c>
-      <c r="K5" s="24">
-        <v>4</v>
-      </c>
-      <c r="L5" s="24">
-        <v>2</v>
-      </c>
-      <c r="M5" s="24">
-        <v>2</v>
-      </c>
-      <c r="N5" s="24">
-        <v>0</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <f>SUM(C5:N5)</f>
-        <v>1131</v>
-      </c>
-      <c r="Q5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="20">
-        <f>Q5/IBNR!R7</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="32">
-        <f t="shared" si="1"/>
-        <v>1131</v>
-      </c>
-      <c r="T5" s="20">
-        <f>S5/IBNR!S7</f>
-        <v>0.99963760729018802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="24">
-        <v>114</v>
-      </c>
-      <c r="D6" s="24">
-        <v>405</v>
-      </c>
-      <c r="E6" s="24">
-        <v>333</v>
-      </c>
-      <c r="F6" s="24">
-        <v>165</v>
-      </c>
-      <c r="G6" s="24">
-        <v>98</v>
-      </c>
-      <c r="H6" s="24">
-        <v>41</v>
-      </c>
-      <c r="I6" s="24">
-        <v>16</v>
-      </c>
-      <c r="J6" s="24">
-        <v>9</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24">
-        <v>5</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <f>SUM(C6:N6)</f>
-        <v>1187</v>
-      </c>
-      <c r="Q6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="20">
-        <f>Q6/IBNR!R8</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="32">
-        <f t="shared" si="1"/>
-        <v>1187</v>
-      </c>
-      <c r="T6" s="20">
-        <f>S6/IBNR!S8</f>
-        <v>0.99963386026451129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="24">
-        <v>100</v>
-      </c>
-      <c r="D7" s="24">
-        <v>430</v>
-      </c>
-      <c r="E7" s="24">
-        <v>358</v>
-      </c>
-      <c r="F7" s="24">
-        <v>201</v>
-      </c>
-      <c r="G7" s="24">
-        <v>98</v>
-      </c>
-      <c r="H7" s="24">
-        <v>51</v>
-      </c>
-      <c r="I7" s="24">
-        <v>21</v>
-      </c>
-      <c r="J7" s="24">
-        <v>10</v>
-      </c>
-      <c r="K7" s="24">
-        <v>6</v>
-      </c>
-      <c r="L7" s="24">
-        <v>2</v>
-      </c>
-      <c r="M7" s="24">
-        <v>1</v>
-      </c>
-      <c r="N7" s="24">
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27">
-        <f>SUM(C7:M7)</f>
-        <v>1278</v>
-      </c>
-      <c r="Q7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="20">
-        <f>Q7/IBNR!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="32">
-        <f t="shared" si="1"/>
-        <v>1278</v>
-      </c>
-      <c r="T7" s="20">
-        <f>S7/IBNR!S9</f>
-        <v>0.9991884190479563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="24">
-        <v>96</v>
-      </c>
-      <c r="D8" s="24">
-        <v>427</v>
-      </c>
-      <c r="E8" s="24">
-        <v>396</v>
-      </c>
-      <c r="F8" s="24">
-        <v>214</v>
-      </c>
-      <c r="G8" s="24">
-        <v>137</v>
-      </c>
-      <c r="H8" s="24">
-        <v>60</v>
-      </c>
-      <c r="I8" s="24">
-        <v>32</v>
-      </c>
-      <c r="J8" s="24">
-        <v>13</v>
-      </c>
-      <c r="K8" s="24">
-        <v>6</v>
-      </c>
-      <c r="L8" s="24">
-        <v>3</v>
-      </c>
-      <c r="M8" s="24">
-        <v>1</v>
-      </c>
-      <c r="N8" s="24">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <f>SUM(C8:L8)</f>
-        <v>1384</v>
-      </c>
-      <c r="Q8" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="20">
-        <f>Q8/IBNR!R10</f>
-        <v>0.40967078093535669</v>
-      </c>
-      <c r="S8" s="32">
-        <f t="shared" si="1"/>
-        <v>1385</v>
-      </c>
-      <c r="T8" s="20">
-        <f>S8/IBNR!S10</f>
-        <v>0.99896065937763134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="24">
-        <v>67</v>
-      </c>
-      <c r="D9" s="24">
-        <v>408</v>
-      </c>
-      <c r="E9" s="24">
-        <v>425</v>
-      </c>
-      <c r="F9" s="24">
-        <v>250</v>
-      </c>
-      <c r="G9" s="24">
-        <v>144</v>
-      </c>
-      <c r="H9" s="24">
-        <v>68</v>
-      </c>
-      <c r="I9" s="24">
-        <v>30</v>
-      </c>
-      <c r="J9" s="24">
-        <v>11</v>
-      </c>
-      <c r="K9" s="24">
-        <v>9</v>
-      </c>
-      <c r="L9" s="24">
-        <v>1</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <f>SUM(C9:K9)</f>
-        <v>1412</v>
-      </c>
-      <c r="Q9" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="20">
-        <f>Q9/IBNR!R11</f>
-        <v>0.17508048516376412</v>
-      </c>
-      <c r="S9" s="32">
-        <f t="shared" si="1"/>
-        <v>1413</v>
-      </c>
-      <c r="T9" s="20">
-        <f>S9/IBNR!S11</f>
-        <v>0.99667657467152559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="24">
-        <v>63</v>
-      </c>
-      <c r="D10" s="24">
-        <v>426</v>
-      </c>
-      <c r="E10" s="24">
-        <v>435</v>
-      </c>
-      <c r="F10" s="24">
-        <v>260</v>
-      </c>
-      <c r="G10" s="24">
-        <v>131</v>
-      </c>
-      <c r="H10" s="24">
-        <v>73</v>
-      </c>
-      <c r="I10" s="24">
-        <v>30</v>
-      </c>
-      <c r="J10" s="24">
-        <v>15</v>
-      </c>
-      <c r="K10" s="24">
-        <v>6</v>
-      </c>
-      <c r="L10" s="24">
-        <v>2</v>
-      </c>
-      <c r="M10" s="24">
-        <v>0</v>
-      </c>
-      <c r="N10" s="24">
-        <v>0</v>
-      </c>
-      <c r="O10" s="24">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <f>SUM(C10:J10)</f>
-        <v>1433</v>
-      </c>
-      <c r="Q10" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="R10" s="20">
-        <f>Q10/IBNR!R12</f>
-        <v>0.67719831314633905</v>
-      </c>
-      <c r="S10" s="32">
-        <f t="shared" si="1"/>
-        <v>1441</v>
-      </c>
-      <c r="T10" s="20">
-        <f>S10/IBNR!S12</f>
-        <v>0.99736064285712589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="24">
-        <v>60</v>
-      </c>
-      <c r="D11" s="24">
-        <v>381</v>
-      </c>
-      <c r="E11" s="24">
-        <v>431</v>
-      </c>
-      <c r="F11" s="24">
-        <v>296</v>
-      </c>
-      <c r="G11" s="24">
-        <v>160</v>
-      </c>
-      <c r="H11" s="24">
-        <v>80</v>
-      </c>
-      <c r="I11" s="24">
-        <v>57</v>
-      </c>
-      <c r="J11" s="24">
-        <v>21</v>
-      </c>
-      <c r="K11" s="24">
-        <v>6</v>
-      </c>
-      <c r="L11" s="24">
-        <v>5</v>
-      </c>
-      <c r="M11" s="24">
-        <v>2</v>
-      </c>
-      <c r="N11" s="24">
-        <v>2</v>
-      </c>
-      <c r="O11" s="24">
-        <v>1</v>
-      </c>
-      <c r="P11" s="27">
-        <f>SUM(C11:I11)</f>
-        <v>1465</v>
-      </c>
-      <c r="Q11" s="21">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="R11" s="20">
-        <f>Q11/IBNR!R13</f>
-        <v>1.3250154387446944</v>
-      </c>
-      <c r="S11" s="32">
-        <f t="shared" si="1"/>
-        <v>1502</v>
-      </c>
-      <c r="T11" s="20">
-        <f>S11/IBNR!S13</f>
-        <v>1.0060792082075074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="24">
-        <v>37</v>
-      </c>
-      <c r="D12" s="24">
-        <v>342</v>
-      </c>
-      <c r="E12" s="24">
-        <v>428</v>
-      </c>
-      <c r="F12" s="24">
-        <v>292</v>
-      </c>
-      <c r="G12" s="24">
-        <v>179</v>
-      </c>
-      <c r="H12" s="24">
-        <v>94</v>
-      </c>
-      <c r="I12" s="24">
-        <v>42</v>
-      </c>
-      <c r="J12" s="24">
-        <v>17</v>
-      </c>
-      <c r="K12" s="24">
-        <v>16</v>
-      </c>
-      <c r="L12" s="24">
-        <v>2</v>
-      </c>
-      <c r="M12" s="24">
-        <v>3</v>
-      </c>
-      <c r="N12" s="24">
-        <v>1</v>
-      </c>
-      <c r="O12" s="24">
-        <v>0</v>
-      </c>
-      <c r="P12" s="27">
-        <f>SUM(C12:H12)</f>
-        <v>1372</v>
-      </c>
-      <c r="Q12" s="21">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="R12" s="20">
-        <f>Q12/IBNR!R14</f>
-        <v>1.2453109938777842</v>
-      </c>
-      <c r="S12" s="32">
-        <f t="shared" si="1"/>
-        <v>1453</v>
-      </c>
-      <c r="T12" s="20">
-        <f>S12/IBNR!S14</f>
-        <v>1.011103352943588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="24">
-        <v>31</v>
-      </c>
-      <c r="D13" s="24">
-        <v>393</v>
-      </c>
-      <c r="E13" s="24">
-        <v>426</v>
-      </c>
-      <c r="F13" s="24">
-        <v>390</v>
-      </c>
-      <c r="G13" s="24">
-        <v>209</v>
-      </c>
-      <c r="H13" s="24">
-        <v>127</v>
-      </c>
-      <c r="I13" s="24">
-        <v>60</v>
-      </c>
-      <c r="J13" s="24">
-        <v>19</v>
-      </c>
-      <c r="K13" s="24">
-        <v>18</v>
-      </c>
-      <c r="L13" s="24">
-        <v>6</v>
-      </c>
-      <c r="M13" s="24">
-        <v>0</v>
-      </c>
-      <c r="N13" s="24">
-        <v>3</v>
-      </c>
-      <c r="O13" s="24">
-        <v>0</v>
-      </c>
-      <c r="P13" s="27">
-        <f>SUM(C13:G13)</f>
-        <v>1449</v>
-      </c>
-      <c r="Q13" s="21">
-        <f t="shared" si="0"/>
-        <v>233</v>
-      </c>
-      <c r="R13" s="20">
-        <f>Q13/IBNR!R15</f>
-        <v>1.4053091055471725</v>
-      </c>
-      <c r="S13" s="32">
-        <f t="shared" si="1"/>
-        <v>1682</v>
-      </c>
-      <c r="T13" s="36">
-        <f>S13/IBNR!S15</f>
-        <v>1.041615175301861</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="24">
-        <v>30</v>
-      </c>
-      <c r="D14" s="24">
-        <v>310</v>
-      </c>
-      <c r="E14" s="24">
-        <v>438</v>
-      </c>
-      <c r="F14" s="24">
-        <v>369</v>
-      </c>
-      <c r="G14" s="24">
-        <v>206</v>
-      </c>
-      <c r="H14" s="24">
-        <v>106</v>
-      </c>
-      <c r="I14" s="24">
-        <v>56</v>
-      </c>
-      <c r="J14" s="24">
-        <v>38</v>
-      </c>
-      <c r="K14" s="24">
-        <v>15</v>
-      </c>
-      <c r="L14" s="24">
-        <v>11</v>
-      </c>
-      <c r="M14" s="24">
-        <v>1</v>
-      </c>
-      <c r="N14" s="24">
-        <v>3</v>
-      </c>
-      <c r="O14" s="24">
-        <v>1</v>
-      </c>
-      <c r="P14" s="27">
-        <f>SUM(C14:F14)</f>
-        <v>1147</v>
-      </c>
-      <c r="Q14" s="21">
-        <f t="shared" si="0"/>
-        <v>437</v>
-      </c>
-      <c r="R14" s="20">
-        <f>Q14/IBNR!R16</f>
-        <v>1.2605244313101258</v>
-      </c>
-      <c r="S14" s="32">
-        <f t="shared" si="1"/>
-        <v>1584</v>
-      </c>
-      <c r="T14" s="36">
-        <f>S14/IBNR!S16</f>
-        <v>1.0604673226374077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="24">
-        <v>38</v>
-      </c>
-      <c r="D15" s="24">
-        <v>335</v>
-      </c>
-      <c r="E15" s="24">
-        <v>465</v>
-      </c>
-      <c r="F15" s="24">
-        <v>381</v>
-      </c>
-      <c r="G15" s="24">
-        <v>213</v>
-      </c>
-      <c r="H15" s="24">
-        <v>136</v>
-      </c>
-      <c r="I15" s="24">
-        <v>73</v>
-      </c>
-      <c r="J15" s="24">
-        <v>35</v>
-      </c>
-      <c r="K15" s="24">
-        <v>20</v>
-      </c>
-      <c r="L15" s="24">
-        <v>7</v>
-      </c>
-      <c r="M15" s="24">
-        <v>3</v>
-      </c>
-      <c r="N15" s="24">
-        <v>0</v>
-      </c>
-      <c r="O15" s="24">
-        <v>1</v>
-      </c>
-      <c r="P15" s="27">
-        <f>SUM(C15:E15)</f>
-        <v>838</v>
-      </c>
-      <c r="Q15" s="21">
-        <f t="shared" si="0"/>
-        <v>869</v>
-      </c>
-      <c r="R15" s="20">
-        <f>Q15/IBNR!R17</f>
-        <v>1.1538924782041138</v>
-      </c>
-      <c r="S15" s="32">
-        <f t="shared" si="1"/>
-        <v>1707</v>
-      </c>
-      <c r="T15" s="36">
-        <f>S15/IBNR!S17</f>
-        <v>1.0728405985969514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="24">
-        <v>18</v>
-      </c>
-      <c r="D16" s="24">
-        <v>259</v>
-      </c>
-      <c r="E16" s="24">
-        <v>448</v>
-      </c>
-      <c r="F16" s="24">
-        <v>392</v>
-      </c>
-      <c r="G16" s="24">
-        <v>241</v>
-      </c>
-      <c r="H16" s="24">
-        <v>136</v>
-      </c>
-      <c r="I16" s="24">
-        <v>76</v>
-      </c>
-      <c r="J16" s="24">
-        <v>30</v>
-      </c>
-      <c r="K16" s="24">
-        <v>10</v>
-      </c>
-      <c r="L16" s="24">
-        <v>10</v>
-      </c>
-      <c r="M16" s="24">
-        <v>3</v>
-      </c>
-      <c r="N16" s="24">
-        <v>2</v>
-      </c>
-      <c r="O16" s="24">
-        <v>1</v>
-      </c>
-      <c r="P16" s="27">
-        <f>SUM(C16:D16)</f>
-        <v>277</v>
-      </c>
-      <c r="Q16" s="21">
-        <f t="shared" si="0"/>
-        <v>1349</v>
-      </c>
-      <c r="R16" s="20">
-        <f>Q16/IBNR!R18</f>
-        <v>1.1240495929147696</v>
-      </c>
-      <c r="S16" s="32">
-        <f t="shared" si="1"/>
-        <v>1626</v>
-      </c>
-      <c r="T16" s="36">
-        <f>S16/IBNR!S18</f>
-        <v>1.1007870135097544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="24">
-        <v>16</v>
-      </c>
-      <c r="D17" s="24">
-        <v>319</v>
-      </c>
-      <c r="E17" s="24">
-        <v>461</v>
-      </c>
-      <c r="F17" s="24">
-        <v>405</v>
-      </c>
-      <c r="G17" s="24">
-        <v>247</v>
-      </c>
-      <c r="H17" s="24">
-        <v>165</v>
-      </c>
-      <c r="I17" s="24">
-        <v>87</v>
-      </c>
-      <c r="J17" s="24">
-        <v>48</v>
-      </c>
-      <c r="K17" s="24">
-        <v>19</v>
-      </c>
-      <c r="L17" s="24">
-        <v>4</v>
-      </c>
-      <c r="M17" s="24">
-        <v>5</v>
-      </c>
-      <c r="N17" s="24">
-        <v>5</v>
-      </c>
-      <c r="O17" s="24">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <f>SUM(C17)</f>
-        <v>16</v>
-      </c>
-      <c r="Q17" s="21">
-        <f t="shared" si="0"/>
-        <v>1765</v>
-      </c>
-      <c r="R17" s="20">
-        <f>Q17/IBNR!R19</f>
-        <v>1.1155041594736617</v>
-      </c>
-      <c r="S17" s="32">
-        <f t="shared" si="1"/>
-        <v>1781</v>
-      </c>
-      <c r="T17" s="36">
-        <f>S17/IBNR!S19</f>
-        <v>1.1143478489815077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="21">
-        <f>SUM(Q2:Q17)</f>
-        <v>4781</v>
-      </c>
-      <c r="R19" s="20">
-        <f>Q19/IBNR!R21</f>
-        <v>1.1481941793439792</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="33">
-        <f>AVERAGE(T2:T17)</f>
-        <v>1.0248495262255997</v>
-      </c>
-      <c r="U19" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O20">
-        <f>IF(IBNR!O4&gt;0,O2/IBNR!O4,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O21">
-        <f>IF(IBNR!O5&gt;0,O3/IBNR!O5,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O22">
-        <f>IF(IBNR!O6&gt;0,O4/IBNR!O6,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O23">
-        <f>IF(IBNR!O7&gt;0,O5/IBNR!O7,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O24">
-        <f>IF(IBNR!O8&gt;0,O6/IBNR!O8,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="M25">
-        <f>IF(IBNR!M9&gt;0,M7/IBNR!M9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <f>IF(IBNR!N9&gt;0,N7/IBNR!N9,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f>IF(IBNR!O9&gt;0,O7/IBNR!O9,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <f>IF(IBNR!L10&gt;0,L8/IBNR!L10,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF(IBNR!M10&gt;0,M8/IBNR!M10,"")</f>
-        <v>0.74950138332798211</v>
-      </c>
-      <c r="N26">
-        <f>IF(IBNR!N10&gt;0,N8/IBNR!N10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f>IF(IBNR!O10&gt;0,O8/IBNR!O10,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K27">
-        <f>IF(IBNR!K11&gt;0,K9/IBNR!K11,"")</f>
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <f>IF(IBNR!L11&gt;0,L9/IBNR!L11,"")</f>
-        <v>0.32031346127339944</v>
-      </c>
-      <c r="M27">
-        <f>IF(IBNR!M11&gt;0,M9/IBNR!M11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>IF(IBNR!N11&gt;0,N9/IBNR!N11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>IF(IBNR!O11&gt;0,O9/IBNR!O11,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>IF(IBNR!J12&gt;0,J10/IBNR!J12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <f>IF(IBNR!K12&gt;0,K10/IBNR!K12,"")</f>
-        <v>0.9292115085649284</v>
-      </c>
-      <c r="L28">
-        <f>IF(IBNR!L12&gt;0,L10/IBNR!L12,"")</f>
-        <v>0.68312987526753288</v>
-      </c>
-      <c r="M28">
-        <f>IF(IBNR!M12&gt;0,M10/IBNR!M12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IF(IBNR!N12&gt;0,N10/IBNR!N12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f>IF(IBNR!O12&gt;0,O10/IBNR!O12,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I29">
-        <f>IF(IBNR!I13&gt;0,I11/IBNR!I13,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>IF(IBNR!J13&gt;0,J11/IBNR!J13,"")</f>
-        <v>1.4517027833295593</v>
-      </c>
-      <c r="K29">
-        <f>IF(IBNR!K13&gt;0,K11/IBNR!K13,"")</f>
-        <v>0.8156319628488774</v>
-      </c>
-      <c r="L29">
-        <f>IF(IBNR!L13&gt;0,L11/IBNR!L13,"")</f>
-        <v>1.4990735583593819</v>
-      </c>
-      <c r="M29">
-        <f>IF(IBNR!M13&gt;0,M11/IBNR!M13,"")</f>
-        <v>1.3224914975757791</v>
-      </c>
-      <c r="N29">
-        <f>IF(IBNR!N13&gt;0,N11/IBNR!N13,"")</f>
-        <v>2.9167744161172999</v>
-      </c>
-      <c r="O29">
-        <f>IF(IBNR!O13&gt;0,O11/IBNR!O13,"")</f>
-        <v>1.7581071928926606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H30">
-        <f>IF(IBNR!H14&gt;0,H12/IBNR!H14,"")</f>
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <f>IF(IBNR!I14&gt;0,I12/IBNR!I14,"")</f>
-        <v>1.0793533895496557</v>
-      </c>
-      <c r="J30">
-        <f>IF(IBNR!J14&gt;0,J12/IBNR!J14,"")</f>
-        <v>1.2557947876282007</v>
-      </c>
-      <c r="K30">
-        <f>IF(IBNR!K14&gt;0,K12/IBNR!K14,"")</f>
-        <v>2.3242043450229652</v>
-      </c>
-      <c r="L30">
-        <f>IF(IBNR!L14&gt;0,L12/IBNR!L14,"")</f>
-        <v>0.64075835117072288</v>
-      </c>
-      <c r="M30">
-        <f>IF(IBNR!M14&gt;0,M12/IBNR!M14,"")</f>
-        <v>2.1198029276946375</v>
-      </c>
-      <c r="N30">
-        <f>IF(IBNR!N14&gt;0,N12/IBNR!N14,"")</f>
-        <v>1.5584188274037107</v>
-      </c>
-      <c r="O30">
-        <f>IF(IBNR!O14&gt;0,O12/IBNR!O14,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <f>IF(IBNR!G15&gt;0,G13/IBNR!G15,"")</f>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <f>IF(IBNR!H15&gt;0,H13/IBNR!H15,"")</f>
-        <v>1.3724416143500404</v>
-      </c>
-      <c r="I31">
-        <f>IF(IBNR!I15&gt;0,I13/IBNR!I15,"")</f>
-        <v>1.3689328096467919</v>
-      </c>
-      <c r="J31">
-        <f>IF(IBNR!J15&gt;0,J13/IBNR!J15,"")</f>
-        <v>1.2460626213282395</v>
-      </c>
-      <c r="K31">
-        <f>IF(IBNR!K15&gt;0,K13/IBNR!K15,"")</f>
-        <v>2.321364528834295</v>
-      </c>
-      <c r="L31">
-        <f>IF(IBNR!L15&gt;0,L13/IBNR!L15,"")</f>
-        <v>1.7066011843548323</v>
-      </c>
-      <c r="M31">
-        <f>IF(IBNR!M15&gt;0,M13/IBNR!M15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f>IF(IBNR!N15&gt;0,N13/IBNR!N15,"")</f>
-        <v>4.1507058186736314</v>
-      </c>
-      <c r="O31">
-        <f>IF(IBNR!O15&gt;0,O13/IBNR!O15,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F32">
-        <f>IF(IBNR!F16&gt;0,F14/IBNR!F16,"")</f>
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <f>IF(IBNR!G16&gt;0,G14/IBNR!G16,"")</f>
-        <v>1.1041511214149553</v>
-      </c>
-      <c r="H32">
-        <f>IF(IBNR!H16&gt;0,H14/IBNR!H16,"")</f>
-        <v>1.1861920564694095</v>
-      </c>
-      <c r="I32">
-        <f>IF(IBNR!I16&gt;0,I14/IBNR!I16,"")</f>
-        <v>1.3230549994035472</v>
-      </c>
-      <c r="J32">
-        <f>IF(IBNR!J16&gt;0,J14/IBNR!J16,"")</f>
-        <v>2.5806484893621819</v>
-      </c>
-      <c r="K32">
-        <f>IF(IBNR!K16&gt;0,K14/IBNR!K16,"")</f>
-        <v>2.0031851269138312</v>
-      </c>
-      <c r="L32">
-        <f>IF(IBNR!L16&gt;0,L14/IBNR!L16,"")</f>
-        <v>3.2399064208746475</v>
-      </c>
-      <c r="M32">
-        <f>IF(IBNR!M16&gt;0,M14/IBNR!M16,"")</f>
-        <v>0.64960556208723508</v>
-      </c>
-      <c r="N32">
-        <f>IF(IBNR!N16&gt;0,N14/IBNR!N16,"")</f>
-        <v>4.2981438161306045</v>
-      </c>
-      <c r="O32">
-        <f>IF(IBNR!O16&gt;0,O14/IBNR!O16,"")</f>
-        <v>1.7271584934075637</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <f>IF(IBNR!E17&gt;0,E15/IBNR!E17,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>IF(IBNR!F17&gt;0,F15/IBNR!F17,"")</f>
-        <v>0.99900668375471879</v>
-      </c>
-      <c r="G33">
-        <f>IF(IBNR!G17&gt;0,G15/IBNR!G17,"")</f>
-        <v>1.0647561453177463</v>
-      </c>
-      <c r="H33">
-        <f>IF(IBNR!H17&gt;0,H15/IBNR!H17,"")</f>
-        <v>1.4193755140845823</v>
-      </c>
-      <c r="I33">
-        <f>IF(IBNR!I17&gt;0,I15/IBNR!I17,"")</f>
-        <v>1.6085034090311137</v>
-      </c>
-      <c r="J33">
-        <f>IF(IBNR!J17&gt;0,J15/IBNR!J17,"")</f>
-        <v>2.2167797998932564</v>
-      </c>
-      <c r="K33">
-        <f>IF(IBNR!K17&gt;0,K15/IBNR!K17,"")</f>
-        <v>2.4909733316674596</v>
-      </c>
-      <c r="L33">
-        <f>IF(IBNR!L17&gt;0,L15/IBNR!L17,"")</f>
-        <v>1.9228573903308814</v>
-      </c>
-      <c r="M33">
-        <f>IF(IBNR!M17&gt;0,M15/IBNR!M17,"")</f>
-        <v>1.8175243747686123</v>
-      </c>
-      <c r="N33">
-        <f>IF(IBNR!N17&gt;0,N15/IBNR!N17,"")</f>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <f>IF(IBNR!O17&gt;0,O15/IBNR!O17,"")</f>
-        <v>1.610799354801566</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <f>IF(IBNR!D18&gt;0,D16/IBNR!D18,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <f>IF(IBNR!E18&gt;0,E16/IBNR!E18,"")</f>
-        <v>0.98640311076706988</v>
-      </c>
-      <c r="F34">
-        <f>IF(IBNR!F18&gt;0,F16/IBNR!F18,"")</f>
-        <v>1.0377062366516558</v>
-      </c>
-      <c r="G34">
-        <f>IF(IBNR!G18&gt;0,G16/IBNR!G18,"")</f>
-        <v>1.2162771173305922</v>
-      </c>
-      <c r="H34">
-        <f>IF(IBNR!H18&gt;0,H16/IBNR!H18,"")</f>
-        <v>1.4329870001013763</v>
-      </c>
-      <c r="I34">
-        <f>IF(IBNR!I18&gt;0,I16/IBNR!I18,"")</f>
-        <v>1.6906653795305899</v>
-      </c>
-      <c r="J34">
-        <f>IF(IBNR!J18&gt;0,J16/IBNR!J18,"")</f>
-        <v>1.918318466000938</v>
-      </c>
-      <c r="K34">
-        <f>IF(IBNR!K18&gt;0,K16/IBNR!K18,"")</f>
-        <v>1.2574305976318156</v>
-      </c>
-      <c r="L34">
-        <f>IF(IBNR!L18&gt;0,L16/IBNR!L18,"")</f>
-        <v>2.7732816459981886</v>
-      </c>
-      <c r="M34">
-        <f>IF(IBNR!M18&gt;0,M16/IBNR!M18,"")</f>
-        <v>1.8349540171478531</v>
-      </c>
-      <c r="N34">
-        <f>IF(IBNR!N18&gt;0,N16/IBNR!N18,"")</f>
-        <v>2.6980120183655312</v>
-      </c>
-      <c r="O34">
-        <f>IF(IBNR!O18&gt;0,O16/IBNR!O18,"")</f>
-        <v>1.6262465515977453</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>IF(IBNR!C19&gt;0,C17/IBNR!C19,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>IF(IBNR!D19&gt;0,D17/IBNR!D19,"")</f>
-        <v>0.99150568664995131</v>
-      </c>
-      <c r="E35">
-        <f>IF(IBNR!E19&gt;0,E17/IBNR!E19,"")</f>
-        <v>0.96640034007837083</v>
-      </c>
-      <c r="F35">
-        <f>IF(IBNR!F19&gt;0,F17/IBNR!F19,"")</f>
-        <v>1.0207587527448814</v>
-      </c>
-      <c r="G35">
-        <f>IF(IBNR!G19&gt;0,G17/IBNR!G19,"")</f>
-        <v>1.1868400039328761</v>
-      </c>
-      <c r="H35">
-        <f>IF(IBNR!H19&gt;0,H17/IBNR!H19,"")</f>
-        <v>1.6552630323961941</v>
-      </c>
-      <c r="I35">
-        <f>IF(IBNR!I19&gt;0,I17/IBNR!I19,"")</f>
-        <v>1.8426508395510255</v>
-      </c>
-      <c r="J35">
-        <f>IF(IBNR!J19&gt;0,J17/IBNR!J19,"")</f>
-        <v>2.9222705378936</v>
-      </c>
-      <c r="K35">
-        <f>IF(IBNR!K19&gt;0,K17/IBNR!K19,"")</f>
-        <v>2.274664524770845</v>
-      </c>
-      <c r="L35">
-        <f>IF(IBNR!L19&gt;0,L17/IBNR!L19,"")</f>
-        <v>1.0561696859797645</v>
-      </c>
-      <c r="M35">
-        <f>IF(IBNR!M19&gt;0,M17/IBNR!M19,"")</f>
-        <v>2.9117471877809735</v>
-      </c>
-      <c r="N35">
-        <f>IF(IBNR!N19&gt;0,N17/IBNR!N19,"")</f>
-        <v>6.4219011759917892</v>
-      </c>
-      <c r="O35">
-        <f>IF(IBNR!O19&gt;0,O17/IBNR!O19,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C36" t="str">
-        <f t="shared" ref="C36" si="2">IF(C18&gt;0,#REF!/C18,"")</f>
-        <v/>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" ref="D36" si="3">IF(D18&gt;0,#REF!/D18,"")</f>
-        <v/>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" ref="E36" si="4">IF(E18&gt;0,#REF!/E18,"")</f>
-        <v/>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" ref="F36" si="5">IF(F18&gt;0,#REF!/F18,"")</f>
-        <v/>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" ref="G36" si="6">IF(G18&gt;0,#REF!/G18,"")</f>
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" ref="H36" si="7">IF(H18&gt;0,#REF!/H18,"")</f>
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" ref="I36" si="8">IF(I18&gt;0,#REF!/I18,"")</f>
-        <v/>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" ref="J36" si="9">IF(J18&gt;0,#REF!/J18,"")</f>
-        <v/>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" ref="K36" si="10">IF(K18&gt;0,#REF!/K18,"")</f>
-        <v/>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" ref="L36" si="11">IF(L18&gt;0,#REF!/L18,"")</f>
-        <v/>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" ref="M36" si="12">IF(M18&gt;0,#REF!/M18,"")</f>
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" ref="N36" si="13">IF(N18&gt;0,#REF!/N18,"")</f>
-        <v/>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" ref="O36" si="14">IF(O18&gt;0,#REF!/O18,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>